--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt_ExportEXCEL.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt_ExportEXCEL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t xml:space="preserve">Nº Procedimento</t>
   </si>
@@ -20,6 +20,9 @@
     <t xml:space="preserve">Nº Fornecedor</t>
   </si>
   <si>
+    <t xml:space="preserve">Nome Fornecedor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cód. Produto</t>
   </si>
   <si>
@@ -71,21 +74,69 @@
     <t xml:space="preserve">Grupo Registo IVA Produto</t>
   </si>
   <si>
+    <t xml:space="preserve">Cód. Categoria Produto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criado Por</t>
   </si>
   <si>
     <t xml:space="preserve">Data-Hora Criação</t>
   </si>
   <si>
-    <t xml:space="preserve">Cód. Categoria Produto</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">300000-LISBOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVERSOS - FORNECEDOR OCASIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATUM 250GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCEARIA ANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARomao@such.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/10/2018 15:06:26</t>
+  </si>
+  <si>
     <t xml:space="preserve">300002</t>
   </si>
   <si>
+    <t xml:space="preserve">A Joaninha Dois</t>
+  </si>
+  <si>
     <t xml:space="preserve">500001</t>
   </si>
   <si>
@@ -98,9 +149,6 @@
     <t xml:space="preserve">31/12/2018</t>
   </si>
   <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
     <t xml:space="preserve">55</t>
   </si>
   <si>
@@ -116,15 +164,12 @@
     <t xml:space="preserve">KG</t>
   </si>
   <si>
-    <t xml:space="preserve">ARomao@such.pt</t>
+    <t xml:space="preserve">PEIXE CONG</t>
   </si>
   <si>
     <t xml:space="preserve">11/10/2018 13:47:37</t>
   </si>
   <si>
-    <t xml:space="preserve">PEIXE CONG</t>
-  </si>
-  <si>
     <t xml:space="preserve">500012</t>
   </si>
   <si>
@@ -137,10 +182,10 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
+    <t xml:space="preserve">PEIXE FRESCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">11/10/2018 13:49:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEIXE FRESCO</t>
   </si>
   <si>
     <t xml:space="preserve">500028</t>
@@ -278,142 +323,165 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3"/>
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
+      <c r="T3"/>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
@@ -422,23 +490,83 @@
         <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4"/>
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
+      <c r="T4"/>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
